--- a/export_sample.xlsx
+++ b/export_sample.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7095" yWindow="3525" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -26,7 +25,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +47,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +72,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,13 +435,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="27.85546875" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
@@ -447,6 +460,136 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>스몰 월드</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>메가리스 오피엘</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>듀얼 부스터</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>네가로기어 아제우스</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>원시생명체 니비루</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>증식의 G</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RR－팬텀 클로</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>레벨 스틸러</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>번개</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>강제 탈출 장치</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>해피의 깃털</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>전뇌계갑－쟈쟈</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>아티팩트－롱기누스</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>1</v>
       </c>
     </row>

--- a/export_sample.xlsx
+++ b/export_sample.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7095" yWindow="3525" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -25,9 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b val="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,19 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -72,7 +62,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -435,16 +425,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="27.85546875" customWidth="1" min="1" max="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
@@ -466,7 +453,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>스몰 월드</t>
+          <t>전뇌계갑－쟈쟈</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -476,17 +463,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>메가리스 오피엘</t>
+          <t>아티팩트－롱기누스</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>듀얼 부스터</t>
+          <t>메가리스 오피엘</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -496,103 +483,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>네가로기어 아제우스</t>
+          <t>원시생명체 니비루</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>원시생명체 니비루</t>
+          <t>스몰 월드</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>증식의 G</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>RR－팬텀 클로</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>레벨 스틸러</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>번개</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>강제 탈출 장치</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>해피의 깃털</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>전뇌계갑－쟈쟈</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>아티팩트－롱기누스</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-    </row>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
